--- a/data_2020_cleaned.xlsx
+++ b/data_2020_cleaned.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Donát\Desktop\önkutfel\cleaned\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5164CF-7432-4BBD-B0A5-55A3B424420A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9446FB1F-E157-4AB5-96B0-F41750E6144C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="373">
   <si>
     <t>Name</t>
   </si>
@@ -1103,13 +1103,55 @@
   </si>
   <si>
     <t>0:05</t>
+  </si>
+  <si>
+    <t>Matek helyes</t>
+  </si>
+  <si>
+    <t>Matek eredmény</t>
+  </si>
+  <si>
+    <t>Matek Blokk 1 
+(5 kérdés)</t>
+  </si>
+  <si>
+    <t>Matek Blokk 2 
+(5 kérdés)</t>
+  </si>
+  <si>
+    <t>Matek Blokk 3 
+(4 kérdés)</t>
+  </si>
+  <si>
+    <t>Kognitív pont</t>
+  </si>
+  <si>
+    <t>Kognitív eredmény</t>
+  </si>
+  <si>
+    <t>Össz eredmény (átlag)</t>
+  </si>
+  <si>
+    <t>FELZÁRKÓZÁS</t>
+  </si>
+  <si>
+    <t>TEHETSÉGGONDOZÓ</t>
+  </si>
+  <si>
+    <t>NEM</t>
+  </si>
+  <si>
+    <t>IGEN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1122,16 +1164,34 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1154,18 +1214,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{54932A7B-8559-4AEF-8747-BB22C13B9148}"/>
+    <cellStyle name="Percent 2" xfId="2" xr:uid="{87CC4B31-A70A-4F8E-A502-F6D773839645}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1465,15 +1567,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I121"/>
+  <dimension ref="A1:S135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="W129" sqref="W129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1501,8 +1603,38 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1530,8 +1662,38 @@
       <c r="I2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="4">
+        <v>12</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="L2" s="4">
+        <v>5</v>
+      </c>
+      <c r="M2" s="4">
+        <v>4</v>
+      </c>
+      <c r="N2" s="4">
+        <v>3</v>
+      </c>
+      <c r="O2" s="4">
+        <v>46.33</v>
+      </c>
+      <c r="P2" s="5">
+        <v>0.70196969696969691</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>0.77955627705627695</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1559,8 +1721,38 @@
       <c r="I3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="4">
+        <v>13</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="L3" s="4">
+        <v>5</v>
+      </c>
+      <c r="M3" s="4">
+        <v>4</v>
+      </c>
+      <c r="N3" s="4">
+        <v>4</v>
+      </c>
+      <c r="O3" s="4">
+        <v>42.67</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0.64651515151515149</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>0.78754329004329005</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1588,8 +1780,38 @@
       <c r="I4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="4">
+        <v>12</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="L4" s="4">
+        <v>5</v>
+      </c>
+      <c r="M4" s="4">
+        <v>4</v>
+      </c>
+      <c r="N4" s="4">
+        <v>3</v>
+      </c>
+      <c r="O4" s="4">
+        <v>43.33</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0.6565151515151515</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>0.75682900432900424</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1617,8 +1839,38 @@
       <c r="I5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="4">
+        <v>11</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="L5" s="4">
+        <v>5</v>
+      </c>
+      <c r="M5" s="4">
+        <v>3</v>
+      </c>
+      <c r="N5" s="4">
+        <v>3</v>
+      </c>
+      <c r="O5" s="4">
+        <v>41.42</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0.62757575757575756</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>0.70664502164502163</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1646,8 +1898,38 @@
       <c r="I6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="4">
+        <v>9</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="L6" s="4">
+        <v>4</v>
+      </c>
+      <c r="M6" s="4">
+        <v>5</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
+        <v>42.16</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0.63878787878787868</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>0.64082251082251074</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1675,8 +1957,38 @@
       <c r="I7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="4">
+        <v>9</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="L7" s="4">
+        <v>3</v>
+      </c>
+      <c r="M7" s="4">
+        <v>4</v>
+      </c>
+      <c r="N7" s="4">
+        <v>2</v>
+      </c>
+      <c r="O7" s="4">
+        <v>41.58</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0.63</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>0.63642857142857145</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -1704,8 +2016,38 @@
       <c r="I8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="4">
+        <v>12</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="L8" s="4">
+        <v>5</v>
+      </c>
+      <c r="M8" s="4">
+        <v>4</v>
+      </c>
+      <c r="N8" s="4">
+        <v>3</v>
+      </c>
+      <c r="O8" s="4">
+        <v>38.5</v>
+      </c>
+      <c r="P8" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>0.72023809523809523</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -1733,8 +2075,38 @@
       <c r="I9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="4">
+        <v>13</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="L9" s="4">
+        <v>5</v>
+      </c>
+      <c r="M9" s="4">
+        <v>5</v>
+      </c>
+      <c r="N9" s="4">
+        <v>3</v>
+      </c>
+      <c r="O9" s="4">
+        <v>37.270000000000003</v>
+      </c>
+      <c r="P9" s="5">
+        <v>0.5646969696969697</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>0.74663419913419915</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -1762,8 +2134,38 @@
       <c r="I10" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="4">
+        <v>9</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="L10" s="4">
+        <v>4</v>
+      </c>
+      <c r="M10" s="4">
+        <v>3</v>
+      </c>
+      <c r="N10" s="4">
+        <v>2</v>
+      </c>
+      <c r="O10" s="4">
+        <v>40.58</v>
+      </c>
+      <c r="P10" s="5">
+        <v>0.61484848484848487</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>0.62885281385281389</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -1791,8 +2193,38 @@
       <c r="I11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="4">
+        <v>13</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="L11" s="4">
+        <v>4</v>
+      </c>
+      <c r="M11" s="4">
+        <v>5</v>
+      </c>
+      <c r="N11" s="4">
+        <v>4</v>
+      </c>
+      <c r="O11" s="4">
+        <v>36.54</v>
+      </c>
+      <c r="P11" s="5">
+        <v>0.55363636363636359</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>0.74110389610389604</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -1820,8 +2252,38 @@
       <c r="I12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="4">
+        <v>11</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="L12" s="4">
+        <v>5</v>
+      </c>
+      <c r="M12" s="4">
+        <v>3</v>
+      </c>
+      <c r="N12" s="4">
+        <v>3</v>
+      </c>
+      <c r="O12" s="4">
+        <v>38.5</v>
+      </c>
+      <c r="P12" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>0.68452380952380953</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -1849,8 +2311,38 @@
       <c r="I13" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="4">
+        <v>12</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="L13" s="4">
+        <v>5</v>
+      </c>
+      <c r="M13" s="4">
+        <v>5</v>
+      </c>
+      <c r="N13" s="4">
+        <v>2</v>
+      </c>
+      <c r="O13" s="4">
+        <v>36.659999999999997</v>
+      </c>
+      <c r="P13" s="5">
+        <v>0.55545454545454542</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>0.7062987012987012</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -1878,8 +2370,38 @@
       <c r="I14" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="4">
+        <v>11</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="L14" s="4">
+        <v>5</v>
+      </c>
+      <c r="M14" s="4">
+        <v>3</v>
+      </c>
+      <c r="N14" s="4">
+        <v>3</v>
+      </c>
+      <c r="O14" s="4">
+        <v>37.58</v>
+      </c>
+      <c r="P14" s="5">
+        <v>0.56939393939393934</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>0.67755411255411246</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -1907,8 +2429,38 @@
       <c r="I15" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="4">
+        <v>8</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L15" s="4">
+        <v>4</v>
+      </c>
+      <c r="M15" s="4">
+        <v>3</v>
+      </c>
+      <c r="N15" s="4">
+        <v>1</v>
+      </c>
+      <c r="O15" s="4">
+        <v>40</v>
+      </c>
+      <c r="P15" s="5">
+        <v>0.60606060606060608</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>0.58874458874458879</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -1936,8 +2488,38 @@
       <c r="I16" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="4">
+        <v>10</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L16" s="4">
+        <v>5</v>
+      </c>
+      <c r="M16" s="4">
+        <v>4</v>
+      </c>
+      <c r="N16" s="4">
+        <v>1</v>
+      </c>
+      <c r="O16" s="4">
+        <v>37.83</v>
+      </c>
+      <c r="P16" s="5">
+        <v>0.57318181818181813</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>0.64373376623376621</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -1965,8 +2547,38 @@
       <c r="I17" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="4">
+        <v>10</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L17" s="4">
+        <v>5</v>
+      </c>
+      <c r="M17" s="4">
+        <v>3</v>
+      </c>
+      <c r="N17" s="4">
+        <v>2</v>
+      </c>
+      <c r="O17" s="4">
+        <v>37.67</v>
+      </c>
+      <c r="P17" s="5">
+        <v>0.5707575757575758</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>0.6425216450216451</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>66</v>
       </c>
@@ -1994,8 +2606,38 @@
       <c r="I18" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="4">
+        <v>12</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="L18" s="4">
+        <v>5</v>
+      </c>
+      <c r="M18" s="4">
+        <v>4</v>
+      </c>
+      <c r="N18" s="4">
+        <v>3</v>
+      </c>
+      <c r="O18" s="4">
+        <v>35.5</v>
+      </c>
+      <c r="P18" s="5">
+        <v>0.53787878787878785</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>0.69751082251082241</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>69</v>
       </c>
@@ -2023,8 +2665,38 @@
       <c r="I19" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="4">
+        <v>12</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="L19" s="4">
+        <v>5</v>
+      </c>
+      <c r="M19" s="4">
+        <v>4</v>
+      </c>
+      <c r="N19" s="4">
+        <v>3</v>
+      </c>
+      <c r="O19" s="4">
+        <v>35.19</v>
+      </c>
+      <c r="P19" s="5">
+        <v>0.5331818181818182</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>0.6951623376623377</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>72</v>
       </c>
@@ -2052,8 +2724,38 @@
       <c r="I20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="4">
+        <v>10</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L20" s="4">
+        <v>5</v>
+      </c>
+      <c r="M20" s="4">
+        <v>4</v>
+      </c>
+      <c r="N20" s="4">
+        <v>1</v>
+      </c>
+      <c r="O20" s="4">
+        <v>36.25</v>
+      </c>
+      <c r="P20" s="5">
+        <v>0.5492424242424242</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>0.63176406926406925</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>74</v>
       </c>
@@ -2081,8 +2783,38 @@
       <c r="I21" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="4">
+        <v>9</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="L21" s="4">
+        <v>5</v>
+      </c>
+      <c r="M21" s="4">
+        <v>2</v>
+      </c>
+      <c r="N21" s="4">
+        <v>2</v>
+      </c>
+      <c r="O21" s="4">
+        <v>37.19</v>
+      </c>
+      <c r="P21" s="5">
+        <v>0.56348484848484848</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>0.60317099567099564</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -2110,8 +2842,38 @@
       <c r="I22" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="4">
+        <v>10</v>
+      </c>
+      <c r="K22" s="5">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L22" s="4">
+        <v>5</v>
+      </c>
+      <c r="M22" s="4">
+        <v>3</v>
+      </c>
+      <c r="N22" s="4">
+        <v>2</v>
+      </c>
+      <c r="O22" s="4">
+        <v>35.33</v>
+      </c>
+      <c r="P22" s="5">
+        <v>0.53530303030303028</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>0.62479437229437229</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>80</v>
       </c>
@@ -2139,8 +2901,38 @@
       <c r="I23" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="4">
+        <v>12</v>
+      </c>
+      <c r="K23" s="5">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="L23" s="4">
+        <v>4</v>
+      </c>
+      <c r="M23" s="4">
+        <v>5</v>
+      </c>
+      <c r="N23" s="4">
+        <v>3</v>
+      </c>
+      <c r="O23" s="4">
+        <v>33.159999999999997</v>
+      </c>
+      <c r="P23" s="5">
+        <v>0.50242424242424233</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>0.67978354978354971</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>84</v>
       </c>
@@ -2168,8 +2960,38 @@
       <c r="I24" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="4">
+        <v>11</v>
+      </c>
+      <c r="K24" s="5">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="L24" s="4">
+        <v>5</v>
+      </c>
+      <c r="M24" s="4">
+        <v>4</v>
+      </c>
+      <c r="N24" s="4">
+        <v>2</v>
+      </c>
+      <c r="O24" s="4">
+        <v>34</v>
+      </c>
+      <c r="P24" s="5">
+        <v>0.51515151515151514</v>
+      </c>
+      <c r="Q24" s="5">
+        <v>0.65043290043290036</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>89</v>
       </c>
@@ -2197,8 +3019,38 @@
       <c r="I25" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="4">
+        <v>10</v>
+      </c>
+      <c r="K25" s="5">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L25" s="4">
+        <v>3</v>
+      </c>
+      <c r="M25" s="4">
+        <v>5</v>
+      </c>
+      <c r="N25" s="4">
+        <v>2</v>
+      </c>
+      <c r="O25" s="4">
+        <v>34.770000000000003</v>
+      </c>
+      <c r="P25" s="5">
+        <v>0.52681818181818185</v>
+      </c>
+      <c r="Q25" s="5">
+        <v>0.62055194805194813</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>91</v>
       </c>
@@ -2226,8 +3078,38 @@
       <c r="I26" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="4">
+        <v>11</v>
+      </c>
+      <c r="K26" s="5">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="L26" s="4">
+        <v>4</v>
+      </c>
+      <c r="M26" s="4">
+        <v>4</v>
+      </c>
+      <c r="N26" s="4">
+        <v>3</v>
+      </c>
+      <c r="O26" s="4">
+        <v>33.659999999999997</v>
+      </c>
+      <c r="P26" s="5">
+        <v>0.5099999999999999</v>
+      </c>
+      <c r="Q26" s="5">
+        <v>0.6478571428571428</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S26" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>93</v>
       </c>
@@ -2255,8 +3137,38 @@
       <c r="I27" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="4">
+        <v>12</v>
+      </c>
+      <c r="K27" s="5">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="L27" s="4">
+        <v>5</v>
+      </c>
+      <c r="M27" s="4">
+        <v>4</v>
+      </c>
+      <c r="N27" s="4">
+        <v>3</v>
+      </c>
+      <c r="O27" s="4">
+        <v>32.6</v>
+      </c>
+      <c r="P27" s="5">
+        <v>0.49393939393939396</v>
+      </c>
+      <c r="Q27" s="5">
+        <v>0.67554112554112555</v>
+      </c>
+      <c r="R27" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S27" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>96</v>
       </c>
@@ -2284,8 +3196,38 @@
       <c r="I28" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="4">
+        <v>10</v>
+      </c>
+      <c r="K28" s="5">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L28" s="4">
+        <v>5</v>
+      </c>
+      <c r="M28" s="4">
+        <v>3</v>
+      </c>
+      <c r="N28" s="4">
+        <v>2</v>
+      </c>
+      <c r="O28" s="4">
+        <v>34.520000000000003</v>
+      </c>
+      <c r="P28" s="5">
+        <v>0.52303030303030307</v>
+      </c>
+      <c r="Q28" s="5">
+        <v>0.61865800865800868</v>
+      </c>
+      <c r="R28" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S28" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>100</v>
       </c>
@@ -2313,8 +3255,38 @@
       <c r="I29" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="4">
+        <v>10</v>
+      </c>
+      <c r="K29" s="5">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L29" s="4">
+        <v>3</v>
+      </c>
+      <c r="M29" s="4">
+        <v>4</v>
+      </c>
+      <c r="N29" s="4">
+        <v>3</v>
+      </c>
+      <c r="O29" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P29" s="5">
+        <v>0.52272727272727271</v>
+      </c>
+      <c r="Q29" s="5">
+        <v>0.61850649350649345</v>
+      </c>
+      <c r="R29" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S29" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>103</v>
       </c>
@@ -2342,8 +3314,38 @@
       <c r="I30" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="4">
+        <v>8</v>
+      </c>
+      <c r="K30" s="5">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L30" s="4">
+        <v>4</v>
+      </c>
+      <c r="M30" s="4">
+        <v>2</v>
+      </c>
+      <c r="N30" s="4">
+        <v>2</v>
+      </c>
+      <c r="O30" s="4">
+        <v>36.5</v>
+      </c>
+      <c r="P30" s="5">
+        <v>0.55303030303030298</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>0.56222943722943719</v>
+      </c>
+      <c r="R30" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S30" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>105</v>
       </c>
@@ -2371,8 +3373,38 @@
       <c r="I31" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" s="4">
+        <v>14</v>
+      </c>
+      <c r="K31" s="5">
+        <v>1</v>
+      </c>
+      <c r="L31" s="4">
+        <v>5</v>
+      </c>
+      <c r="M31" s="4">
+        <v>5</v>
+      </c>
+      <c r="N31" s="4">
+        <v>4</v>
+      </c>
+      <c r="O31" s="4">
+        <v>30.42</v>
+      </c>
+      <c r="P31" s="5">
+        <v>0.46090909090909093</v>
+      </c>
+      <c r="Q31" s="5">
+        <v>0.73045454545454547</v>
+      </c>
+      <c r="R31" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S31" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>108</v>
       </c>
@@ -2400,8 +3432,38 @@
       <c r="I32" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="4">
+        <v>7</v>
+      </c>
+      <c r="K32" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="L32" s="4">
+        <v>4</v>
+      </c>
+      <c r="M32" s="4">
+        <v>3</v>
+      </c>
+      <c r="N32" s="4">
+        <v>0</v>
+      </c>
+      <c r="O32" s="4">
+        <v>37</v>
+      </c>
+      <c r="P32" s="5">
+        <v>0.56060606060606055</v>
+      </c>
+      <c r="Q32" s="5">
+        <v>0.53030303030303028</v>
+      </c>
+      <c r="R32" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S32" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>111</v>
       </c>
@@ -2429,8 +3491,38 @@
       <c r="I33" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="4">
+        <v>10</v>
+      </c>
+      <c r="K33" s="5">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L33" s="4">
+        <v>4</v>
+      </c>
+      <c r="M33" s="4">
+        <v>3</v>
+      </c>
+      <c r="N33" s="4">
+        <v>3</v>
+      </c>
+      <c r="O33" s="4">
+        <v>33.93</v>
+      </c>
+      <c r="P33" s="5">
+        <v>0.51409090909090904</v>
+      </c>
+      <c r="Q33" s="5">
+        <v>0.61418831168831167</v>
+      </c>
+      <c r="R33" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S33" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>114</v>
       </c>
@@ -2458,8 +3550,38 @@
       <c r="I34" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="4">
+        <v>10</v>
+      </c>
+      <c r="K34" s="5">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L34" s="4">
+        <v>4</v>
+      </c>
+      <c r="M34" s="4">
+        <v>3</v>
+      </c>
+      <c r="N34" s="4">
+        <v>3</v>
+      </c>
+      <c r="O34" s="4">
+        <v>33.909999999999997</v>
+      </c>
+      <c r="P34" s="5">
+        <v>0.51378787878787868</v>
+      </c>
+      <c r="Q34" s="5">
+        <v>0.61403679653679655</v>
+      </c>
+      <c r="R34" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S34" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>119</v>
       </c>
@@ -2487,8 +3609,38 @@
       <c r="I35" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" s="4">
+        <v>11</v>
+      </c>
+      <c r="K35" s="5">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="L35" s="4">
+        <v>4</v>
+      </c>
+      <c r="M35" s="4">
+        <v>3</v>
+      </c>
+      <c r="N35" s="4">
+        <v>4</v>
+      </c>
+      <c r="O35" s="4">
+        <v>32.840000000000003</v>
+      </c>
+      <c r="P35" s="5">
+        <v>0.49757575757575762</v>
+      </c>
+      <c r="Q35" s="5">
+        <v>0.64164502164502168</v>
+      </c>
+      <c r="R35" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S35" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>122</v>
       </c>
@@ -2516,8 +3668,38 @@
       <c r="I36" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="4">
+        <v>10</v>
+      </c>
+      <c r="K36" s="5">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L36" s="4">
+        <v>5</v>
+      </c>
+      <c r="M36" s="4">
+        <v>3</v>
+      </c>
+      <c r="N36" s="4">
+        <v>2</v>
+      </c>
+      <c r="O36" s="4">
+        <v>33.58</v>
+      </c>
+      <c r="P36" s="5">
+        <v>0.50878787878787879</v>
+      </c>
+      <c r="Q36" s="5">
+        <v>0.6115367965367966</v>
+      </c>
+      <c r="R36" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S36" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>124</v>
       </c>
@@ -2545,8 +3727,38 @@
       <c r="I37" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="4">
+        <v>7</v>
+      </c>
+      <c r="K37" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="L37" s="4">
+        <v>1</v>
+      </c>
+      <c r="M37" s="4">
+        <v>4</v>
+      </c>
+      <c r="N37" s="4">
+        <v>2</v>
+      </c>
+      <c r="O37" s="4">
+        <v>36.409999999999997</v>
+      </c>
+      <c r="P37" s="5">
+        <v>0.55166666666666664</v>
+      </c>
+      <c r="Q37" s="5">
+        <v>0.52583333333333337</v>
+      </c>
+      <c r="R37" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="S37" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>127</v>
       </c>
@@ -2574,8 +3786,38 @@
       <c r="I38" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" s="4">
+        <v>11</v>
+      </c>
+      <c r="K38" s="5">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="L38" s="4">
+        <v>5</v>
+      </c>
+      <c r="M38" s="4">
+        <v>3</v>
+      </c>
+      <c r="N38" s="4">
+        <v>3</v>
+      </c>
+      <c r="O38" s="4">
+        <v>31.67</v>
+      </c>
+      <c r="P38" s="5">
+        <v>0.47984848484848486</v>
+      </c>
+      <c r="Q38" s="5">
+        <v>0.63278138528138528</v>
+      </c>
+      <c r="R38" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S38" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>130</v>
       </c>
@@ -2603,8 +3845,38 @@
       <c r="I39" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="4">
+        <v>10</v>
+      </c>
+      <c r="K39" s="5">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L39" s="4">
+        <v>4</v>
+      </c>
+      <c r="M39" s="4">
+        <v>5</v>
+      </c>
+      <c r="N39" s="4">
+        <v>1</v>
+      </c>
+      <c r="O39" s="4">
+        <v>32.58</v>
+      </c>
+      <c r="P39" s="5">
+        <v>0.4936363636363636</v>
+      </c>
+      <c r="Q39" s="5">
+        <v>0.60396103896103892</v>
+      </c>
+      <c r="R39" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S39" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>133</v>
       </c>
@@ -2632,8 +3904,38 @@
       <c r="I40" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="4">
+        <v>8</v>
+      </c>
+      <c r="K40" s="5">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L40" s="4">
+        <v>4</v>
+      </c>
+      <c r="M40" s="4">
+        <v>2</v>
+      </c>
+      <c r="N40" s="4">
+        <v>2</v>
+      </c>
+      <c r="O40" s="4">
+        <v>34.340000000000003</v>
+      </c>
+      <c r="P40" s="5">
+        <v>0.52030303030303038</v>
+      </c>
+      <c r="Q40" s="5">
+        <v>0.54586580086580083</v>
+      </c>
+      <c r="R40" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S40" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>135</v>
       </c>
@@ -2661,8 +3963,38 @@
       <c r="I41" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="4">
+        <v>11</v>
+      </c>
+      <c r="K41" s="5">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="L41" s="4">
+        <v>4</v>
+      </c>
+      <c r="M41" s="4">
+        <v>4</v>
+      </c>
+      <c r="N41" s="4">
+        <v>3</v>
+      </c>
+      <c r="O41" s="4">
+        <v>30.590000000000003</v>
+      </c>
+      <c r="P41" s="5">
+        <v>0.46348484848484856</v>
+      </c>
+      <c r="Q41" s="5">
+        <v>0.6245995670995671</v>
+      </c>
+      <c r="R41" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S41" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>137</v>
       </c>
@@ -2690,8 +4022,38 @@
       <c r="I42" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="4">
+        <v>11</v>
+      </c>
+      <c r="K42" s="5">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="L42" s="4">
+        <v>5</v>
+      </c>
+      <c r="M42" s="4">
+        <v>4</v>
+      </c>
+      <c r="N42" s="4">
+        <v>2</v>
+      </c>
+      <c r="O42" s="4">
+        <v>30.159999999999997</v>
+      </c>
+      <c r="P42" s="5">
+        <v>0.45696969696969691</v>
+      </c>
+      <c r="Q42" s="5">
+        <v>0.62134199134199131</v>
+      </c>
+      <c r="R42" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S42" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>140</v>
       </c>
@@ -2719,8 +4081,38 @@
       <c r="I43" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="4">
+        <v>11</v>
+      </c>
+      <c r="K43" s="5">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="L43" s="4">
+        <v>4</v>
+      </c>
+      <c r="M43" s="4">
+        <v>4</v>
+      </c>
+      <c r="N43" s="4">
+        <v>3</v>
+      </c>
+      <c r="O43" s="4">
+        <v>30</v>
+      </c>
+      <c r="P43" s="5">
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="Q43" s="5">
+        <v>0.62012987012987009</v>
+      </c>
+      <c r="R43" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S43" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>143</v>
       </c>
@@ -2748,8 +4140,38 @@
       <c r="I44" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="4">
+        <v>12</v>
+      </c>
+      <c r="K44" s="5">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="L44" s="4">
+        <v>5</v>
+      </c>
+      <c r="M44" s="4">
+        <v>5</v>
+      </c>
+      <c r="N44" s="4">
+        <v>2</v>
+      </c>
+      <c r="O44" s="4">
+        <v>28.75</v>
+      </c>
+      <c r="P44" s="5">
+        <v>0.43560606060606061</v>
+      </c>
+      <c r="Q44" s="5">
+        <v>0.64637445887445888</v>
+      </c>
+      <c r="R44" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S44" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>145</v>
       </c>
@@ -2777,8 +4199,38 @@
       <c r="I45" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45" s="4">
+        <v>6</v>
+      </c>
+      <c r="K45" s="5">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="L45" s="4">
+        <v>4</v>
+      </c>
+      <c r="M45" s="4">
+        <v>2</v>
+      </c>
+      <c r="N45" s="4">
+        <v>0</v>
+      </c>
+      <c r="O45" s="4">
+        <v>34.67</v>
+      </c>
+      <c r="P45" s="5">
+        <v>0.52530303030303038</v>
+      </c>
+      <c r="Q45" s="5">
+        <v>0.47693722943722949</v>
+      </c>
+      <c r="R45" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S45" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>148</v>
       </c>
@@ -2806,8 +4258,38 @@
       <c r="I46" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46" s="4">
+        <v>6</v>
+      </c>
+      <c r="K46" s="5">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="L46" s="4">
+        <v>3</v>
+      </c>
+      <c r="M46" s="4">
+        <v>2</v>
+      </c>
+      <c r="N46" s="4">
+        <v>1</v>
+      </c>
+      <c r="O46" s="4">
+        <v>34.58</v>
+      </c>
+      <c r="P46" s="5">
+        <v>0.52393939393939393</v>
+      </c>
+      <c r="Q46" s="5">
+        <v>0.47625541125541127</v>
+      </c>
+      <c r="R46" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="S46" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>152</v>
       </c>
@@ -2835,8 +4317,38 @@
       <c r="I47" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47" s="4">
+        <v>13</v>
+      </c>
+      <c r="K47" s="5">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="L47" s="4">
+        <v>5</v>
+      </c>
+      <c r="M47" s="4">
+        <v>4</v>
+      </c>
+      <c r="N47" s="4">
+        <v>4</v>
+      </c>
+      <c r="O47" s="4">
+        <v>27.5</v>
+      </c>
+      <c r="P47" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="Q47" s="5">
+        <v>0.67261904761904767</v>
+      </c>
+      <c r="R47" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S47" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>154</v>
       </c>
@@ -2864,8 +4376,38 @@
       <c r="I48" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48" s="4">
+        <v>10</v>
+      </c>
+      <c r="K48" s="5">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L48" s="4">
+        <v>4</v>
+      </c>
+      <c r="M48" s="4">
+        <v>5</v>
+      </c>
+      <c r="N48" s="4">
+        <v>1</v>
+      </c>
+      <c r="O48" s="4">
+        <v>30.25</v>
+      </c>
+      <c r="P48" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="Q48" s="5">
+        <v>0.58630952380952384</v>
+      </c>
+      <c r="R48" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S48" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>157</v>
       </c>
@@ -2893,8 +4435,38 @@
       <c r="I49" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49" s="4">
+        <v>10</v>
+      </c>
+      <c r="K49" s="5">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L49" s="4">
+        <v>5</v>
+      </c>
+      <c r="M49" s="4">
+        <v>4</v>
+      </c>
+      <c r="N49" s="4">
+        <v>1</v>
+      </c>
+      <c r="O49" s="4">
+        <v>29.83</v>
+      </c>
+      <c r="P49" s="5">
+        <v>0.45196969696969697</v>
+      </c>
+      <c r="Q49" s="5">
+        <v>0.58312770562770566</v>
+      </c>
+      <c r="R49" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S49" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>160</v>
       </c>
@@ -2922,8 +4494,38 @@
       <c r="I50" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50" s="4">
+        <v>11</v>
+      </c>
+      <c r="K50" s="5">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="L50" s="4">
+        <v>4</v>
+      </c>
+      <c r="M50" s="4">
+        <v>5</v>
+      </c>
+      <c r="N50" s="4">
+        <v>2</v>
+      </c>
+      <c r="O50" s="4">
+        <v>28.5</v>
+      </c>
+      <c r="P50" s="5">
+        <v>0.43181818181818182</v>
+      </c>
+      <c r="Q50" s="5">
+        <v>0.60876623376623373</v>
+      </c>
+      <c r="R50" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S50" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>163</v>
       </c>
@@ -2951,8 +4553,38 @@
       <c r="I51" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51" s="4">
+        <v>9</v>
+      </c>
+      <c r="K51" s="5">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="L51" s="4">
+        <v>4</v>
+      </c>
+      <c r="M51" s="4">
+        <v>3</v>
+      </c>
+      <c r="N51" s="4">
+        <v>2</v>
+      </c>
+      <c r="O51" s="4">
+        <v>30.43</v>
+      </c>
+      <c r="P51" s="5">
+        <v>0.46106060606060606</v>
+      </c>
+      <c r="Q51" s="5">
+        <v>0.55195887445887448</v>
+      </c>
+      <c r="R51" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S51" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>166</v>
       </c>
@@ -2980,8 +4612,38 @@
       <c r="I52" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52" s="4">
+        <v>7</v>
+      </c>
+      <c r="K52" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="L52" s="4">
+        <v>5</v>
+      </c>
+      <c r="M52" s="4">
+        <v>2</v>
+      </c>
+      <c r="N52" s="4">
+        <v>0</v>
+      </c>
+      <c r="O52" s="4">
+        <v>32.33</v>
+      </c>
+      <c r="P52" s="5">
+        <v>0.48984848484848481</v>
+      </c>
+      <c r="Q52" s="5">
+        <v>0.49492424242424238</v>
+      </c>
+      <c r="R52" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S52" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>169</v>
       </c>
@@ -3009,8 +4671,38 @@
       <c r="I53" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53" s="4">
+        <v>7</v>
+      </c>
+      <c r="K53" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="L53" s="4">
+        <v>3</v>
+      </c>
+      <c r="M53" s="4">
+        <v>2</v>
+      </c>
+      <c r="N53" s="4">
+        <v>2</v>
+      </c>
+      <c r="O53" s="4">
+        <v>32</v>
+      </c>
+      <c r="P53" s="5">
+        <v>0.48484848484848486</v>
+      </c>
+      <c r="Q53" s="5">
+        <v>0.49242424242424243</v>
+      </c>
+      <c r="R53" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="S53" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>171</v>
       </c>
@@ -3038,8 +4730,38 @@
       <c r="I54" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54" s="4">
+        <v>8</v>
+      </c>
+      <c r="K54" s="5">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L54" s="4">
+        <v>4</v>
+      </c>
+      <c r="M54" s="4">
+        <v>1</v>
+      </c>
+      <c r="N54" s="4">
+        <v>3</v>
+      </c>
+      <c r="O54" s="4">
+        <v>31</v>
+      </c>
+      <c r="P54" s="5">
+        <v>0.46969696969696972</v>
+      </c>
+      <c r="Q54" s="5">
+        <v>0.52056277056277056</v>
+      </c>
+      <c r="R54" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="S54" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>174</v>
       </c>
@@ -3067,8 +4789,38 @@
       <c r="I55" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55" s="4">
+        <v>9</v>
+      </c>
+      <c r="K55" s="5">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="L55" s="4">
+        <v>4</v>
+      </c>
+      <c r="M55" s="4">
+        <v>4</v>
+      </c>
+      <c r="N55" s="4">
+        <v>1</v>
+      </c>
+      <c r="O55" s="4">
+        <v>29.83</v>
+      </c>
+      <c r="P55" s="5">
+        <v>0.45196969696969697</v>
+      </c>
+      <c r="Q55" s="5">
+        <v>0.54741341991341996</v>
+      </c>
+      <c r="R55" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S55" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>177</v>
       </c>
@@ -3096,8 +4848,38 @@
       <c r="I56" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56" s="4">
+        <v>9</v>
+      </c>
+      <c r="K56" s="5">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="L56" s="4">
+        <v>3</v>
+      </c>
+      <c r="M56" s="4">
+        <v>3</v>
+      </c>
+      <c r="N56" s="4">
+        <v>3</v>
+      </c>
+      <c r="O56" s="4">
+        <v>29.83</v>
+      </c>
+      <c r="P56" s="5">
+        <v>0.45196969696969697</v>
+      </c>
+      <c r="Q56" s="5">
+        <v>0.54741341991341996</v>
+      </c>
+      <c r="R56" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S56" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>180</v>
       </c>
@@ -3125,8 +4907,38 @@
       <c r="I57" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57" s="4">
+        <v>11</v>
+      </c>
+      <c r="K57" s="5">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="L57" s="4">
+        <v>5</v>
+      </c>
+      <c r="M57" s="4">
+        <v>4</v>
+      </c>
+      <c r="N57" s="4">
+        <v>2</v>
+      </c>
+      <c r="O57" s="4">
+        <v>27.75</v>
+      </c>
+      <c r="P57" s="5">
+        <v>0.42045454545454547</v>
+      </c>
+      <c r="Q57" s="5">
+        <v>0.60308441558441561</v>
+      </c>
+      <c r="R57" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S57" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>182</v>
       </c>
@@ -3154,8 +4966,38 @@
       <c r="I58" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58" s="4">
+        <v>10</v>
+      </c>
+      <c r="K58" s="5">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L58" s="4">
+        <v>5</v>
+      </c>
+      <c r="M58" s="4">
+        <v>3</v>
+      </c>
+      <c r="N58" s="4">
+        <v>2</v>
+      </c>
+      <c r="O58" s="4">
+        <v>28.340000000000003</v>
+      </c>
+      <c r="P58" s="5">
+        <v>0.42939393939393944</v>
+      </c>
+      <c r="Q58" s="5">
+        <v>0.57183982683982681</v>
+      </c>
+      <c r="R58" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S58" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>185</v>
       </c>
@@ -3183,8 +5025,38 @@
       <c r="I59" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59" s="4">
+        <v>7</v>
+      </c>
+      <c r="K59" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="L59" s="4">
+        <v>3</v>
+      </c>
+      <c r="M59" s="4">
+        <v>4</v>
+      </c>
+      <c r="N59" s="4">
+        <v>0</v>
+      </c>
+      <c r="O59" s="4">
+        <v>31.33</v>
+      </c>
+      <c r="P59" s="5">
+        <v>0.47469696969696967</v>
+      </c>
+      <c r="Q59" s="5">
+        <v>0.48734848484848481</v>
+      </c>
+      <c r="R59" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S59" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>188</v>
       </c>
@@ -3212,8 +5084,38 @@
       <c r="I60" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60" s="4">
+        <v>8</v>
+      </c>
+      <c r="K60" s="5">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L60" s="4">
+        <v>5</v>
+      </c>
+      <c r="M60" s="4">
+        <v>2</v>
+      </c>
+      <c r="N60" s="4">
+        <v>1</v>
+      </c>
+      <c r="O60" s="4">
+        <v>30.259999999999998</v>
+      </c>
+      <c r="P60" s="5">
+        <v>0.45848484848484844</v>
+      </c>
+      <c r="Q60" s="5">
+        <v>0.51495670995670995</v>
+      </c>
+      <c r="R60" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S60" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>190</v>
       </c>
@@ -3241,8 +5143,38 @@
       <c r="I61" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J61" s="4">
+        <v>11</v>
+      </c>
+      <c r="K61" s="5">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="L61" s="4">
+        <v>5</v>
+      </c>
+      <c r="M61" s="4">
+        <v>4</v>
+      </c>
+      <c r="N61" s="4">
+        <v>2</v>
+      </c>
+      <c r="O61" s="4">
+        <v>26.58</v>
+      </c>
+      <c r="P61" s="5">
+        <v>0.40272727272727271</v>
+      </c>
+      <c r="Q61" s="5">
+        <v>0.5942207792207792</v>
+      </c>
+      <c r="R61" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S61" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>193</v>
       </c>
@@ -3270,8 +5202,38 @@
       <c r="I62" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62" s="4">
+        <v>11</v>
+      </c>
+      <c r="K62" s="5">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="L62" s="4">
+        <v>5</v>
+      </c>
+      <c r="M62" s="4">
+        <v>4</v>
+      </c>
+      <c r="N62" s="4">
+        <v>2</v>
+      </c>
+      <c r="O62" s="4">
+        <v>26.33</v>
+      </c>
+      <c r="P62" s="5">
+        <v>0.39893939393939393</v>
+      </c>
+      <c r="Q62" s="5">
+        <v>0.59232683982683976</v>
+      </c>
+      <c r="R62" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S62" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>196</v>
       </c>
@@ -3299,8 +5261,38 @@
       <c r="I63" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J63" s="4">
+        <v>10</v>
+      </c>
+      <c r="K63" s="5">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L63" s="4">
+        <v>5</v>
+      </c>
+      <c r="M63" s="4">
+        <v>3</v>
+      </c>
+      <c r="N63" s="4">
+        <v>2</v>
+      </c>
+      <c r="O63" s="4">
+        <v>27.1</v>
+      </c>
+      <c r="P63" s="5">
+        <v>0.41060606060606064</v>
+      </c>
+      <c r="Q63" s="5">
+        <v>0.56244588744588753</v>
+      </c>
+      <c r="R63" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S63" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>199</v>
       </c>
@@ -3328,8 +5320,38 @@
       <c r="I64" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J64" s="4">
+        <v>11</v>
+      </c>
+      <c r="K64" s="5">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="L64" s="4">
+        <v>4</v>
+      </c>
+      <c r="M64" s="4">
+        <v>4</v>
+      </c>
+      <c r="N64" s="4">
+        <v>3</v>
+      </c>
+      <c r="O64" s="4">
+        <v>25.83</v>
+      </c>
+      <c r="P64" s="5">
+        <v>0.39136363636363636</v>
+      </c>
+      <c r="Q64" s="5">
+        <v>0.58853896103896108</v>
+      </c>
+      <c r="R64" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S64" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>202</v>
       </c>
@@ -3357,8 +5379,38 @@
       <c r="I65" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J65" s="4">
+        <v>12</v>
+      </c>
+      <c r="K65" s="5">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="L65" s="4">
+        <v>5</v>
+      </c>
+      <c r="M65" s="4">
+        <v>3</v>
+      </c>
+      <c r="N65" s="4">
+        <v>4</v>
+      </c>
+      <c r="O65" s="4">
+        <v>24.759999999999998</v>
+      </c>
+      <c r="P65" s="5">
+        <v>0.37515151515151512</v>
+      </c>
+      <c r="Q65" s="5">
+        <v>0.61614718614718611</v>
+      </c>
+      <c r="R65" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S65" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>204</v>
       </c>
@@ -3386,8 +5438,38 @@
       <c r="I66" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J66" s="4">
+        <v>5</v>
+      </c>
+      <c r="K66" s="5">
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="L66" s="4">
+        <v>3</v>
+      </c>
+      <c r="M66" s="4">
+        <v>1</v>
+      </c>
+      <c r="N66" s="4">
+        <v>1</v>
+      </c>
+      <c r="O66" s="4">
+        <v>31.67</v>
+      </c>
+      <c r="P66" s="5">
+        <v>0.47984848484848486</v>
+      </c>
+      <c r="Q66" s="5">
+        <v>0.41849567099567098</v>
+      </c>
+      <c r="R66" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="S66" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>208</v>
       </c>
@@ -3415,8 +5497,38 @@
       <c r="I67" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J67" s="4">
+        <v>7</v>
+      </c>
+      <c r="K67" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="L67" s="4">
+        <v>3</v>
+      </c>
+      <c r="M67" s="4">
+        <v>2</v>
+      </c>
+      <c r="N67" s="4">
+        <v>2</v>
+      </c>
+      <c r="O67" s="4">
+        <v>29.6</v>
+      </c>
+      <c r="P67" s="5">
+        <v>0.44848484848484849</v>
+      </c>
+      <c r="Q67" s="5">
+        <v>0.47424242424242424</v>
+      </c>
+      <c r="R67" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="S67" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>211</v>
       </c>
@@ -3444,8 +5556,38 @@
       <c r="I68" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J68" s="4">
+        <v>4</v>
+      </c>
+      <c r="K68" s="5">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L68" s="4">
+        <v>1</v>
+      </c>
+      <c r="M68" s="4">
+        <v>2</v>
+      </c>
+      <c r="N68" s="4">
+        <v>1</v>
+      </c>
+      <c r="O68" s="4">
+        <v>32.409999999999997</v>
+      </c>
+      <c r="P68" s="5">
+        <v>0.49106060606060603</v>
+      </c>
+      <c r="Q68" s="5">
+        <v>0.38838744588744589</v>
+      </c>
+      <c r="R68" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="S68" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>214</v>
       </c>
@@ -3473,8 +5615,38 @@
       <c r="I69" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J69" s="4">
+        <v>6</v>
+      </c>
+      <c r="K69" s="5">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="L69" s="4">
+        <v>4</v>
+      </c>
+      <c r="M69" s="4">
+        <v>1</v>
+      </c>
+      <c r="N69" s="4">
+        <v>1</v>
+      </c>
+      <c r="O69" s="4">
+        <v>30.1</v>
+      </c>
+      <c r="P69" s="5">
+        <v>0.45606060606060606</v>
+      </c>
+      <c r="Q69" s="5">
+        <v>0.44231601731601733</v>
+      </c>
+      <c r="R69" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="S69" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>217</v>
       </c>
@@ -3502,8 +5674,38 @@
       <c r="I70" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J70" s="4">
+        <v>9</v>
+      </c>
+      <c r="K70" s="5">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="L70" s="4">
+        <v>4</v>
+      </c>
+      <c r="M70" s="4">
+        <v>2</v>
+      </c>
+      <c r="N70" s="4">
+        <v>3</v>
+      </c>
+      <c r="O70" s="4">
+        <v>26.659999999999997</v>
+      </c>
+      <c r="P70" s="5">
+        <v>0.40393939393939388</v>
+      </c>
+      <c r="Q70" s="5">
+        <v>0.52339826839826842</v>
+      </c>
+      <c r="R70" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S70" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>220</v>
       </c>
@@ -3531,8 +5733,38 @@
       <c r="I71" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J71" s="4">
+        <v>6</v>
+      </c>
+      <c r="K71" s="5">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="L71" s="4">
+        <v>3</v>
+      </c>
+      <c r="M71" s="4">
+        <v>3</v>
+      </c>
+      <c r="N71" s="4">
+        <v>0</v>
+      </c>
+      <c r="O71" s="4">
+        <v>29.6</v>
+      </c>
+      <c r="P71" s="5">
+        <v>0.44848484848484849</v>
+      </c>
+      <c r="Q71" s="5">
+        <v>0.43852813852813854</v>
+      </c>
+      <c r="R71" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S71" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>222</v>
       </c>
@@ -3560,8 +5792,38 @@
       <c r="I72" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J72" s="4">
+        <v>6</v>
+      </c>
+      <c r="K72" s="5">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="L72" s="4">
+        <v>3</v>
+      </c>
+      <c r="M72" s="4">
+        <v>2</v>
+      </c>
+      <c r="N72" s="4">
+        <v>1</v>
+      </c>
+      <c r="O72" s="4">
+        <v>29.409999999999997</v>
+      </c>
+      <c r="P72" s="5">
+        <v>0.44560606060606056</v>
+      </c>
+      <c r="Q72" s="5">
+        <v>0.43708874458874458</v>
+      </c>
+      <c r="R72" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="S72" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>225</v>
       </c>
@@ -3589,8 +5851,38 @@
       <c r="I73" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J73" s="4">
+        <v>11</v>
+      </c>
+      <c r="K73" s="5">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="L73" s="4">
+        <v>4</v>
+      </c>
+      <c r="M73" s="4">
+        <v>4</v>
+      </c>
+      <c r="N73" s="4">
+        <v>3</v>
+      </c>
+      <c r="O73" s="4">
+        <v>24.409999999999997</v>
+      </c>
+      <c r="P73" s="5">
+        <v>0.36984848484848482</v>
+      </c>
+      <c r="Q73" s="5">
+        <v>0.57778138528138523</v>
+      </c>
+      <c r="R73" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S73" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>227</v>
       </c>
@@ -3618,8 +5910,38 @@
       <c r="I74" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J74" s="4">
+        <v>7</v>
+      </c>
+      <c r="K74" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="L74" s="4">
+        <v>3</v>
+      </c>
+      <c r="M74" s="4">
+        <v>3</v>
+      </c>
+      <c r="N74" s="4">
+        <v>1</v>
+      </c>
+      <c r="O74" s="4">
+        <v>28.340000000000003</v>
+      </c>
+      <c r="P74" s="5">
+        <v>0.42939393939393944</v>
+      </c>
+      <c r="Q74" s="5">
+        <v>0.46469696969696972</v>
+      </c>
+      <c r="R74" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S74" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>231</v>
       </c>
@@ -3647,8 +5969,38 @@
       <c r="I75" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J75" s="4">
+        <v>11</v>
+      </c>
+      <c r="K75" s="5">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="L75" s="4">
+        <v>5</v>
+      </c>
+      <c r="M75" s="4">
+        <v>4</v>
+      </c>
+      <c r="N75" s="4">
+        <v>2</v>
+      </c>
+      <c r="O75" s="4">
+        <v>23.659999999999997</v>
+      </c>
+      <c r="P75" s="5">
+        <v>0.35848484848484841</v>
+      </c>
+      <c r="Q75" s="5">
+        <v>0.572099567099567</v>
+      </c>
+      <c r="R75" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S75" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>234</v>
       </c>
@@ -3676,8 +6028,38 @@
       <c r="I76" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J76" s="4">
+        <v>8</v>
+      </c>
+      <c r="K76" s="5">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L76" s="4">
+        <v>5</v>
+      </c>
+      <c r="M76" s="4">
+        <v>2</v>
+      </c>
+      <c r="N76" s="4">
+        <v>1</v>
+      </c>
+      <c r="O76" s="4">
+        <v>26.6</v>
+      </c>
+      <c r="P76" s="5">
+        <v>0.40303030303030307</v>
+      </c>
+      <c r="Q76" s="5">
+        <v>0.48722943722943723</v>
+      </c>
+      <c r="R76" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S76" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>237</v>
       </c>
@@ -3705,8 +6087,38 @@
       <c r="I77" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J77" s="4">
+        <v>9</v>
+      </c>
+      <c r="K77" s="5">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="L77" s="4">
+        <v>5</v>
+      </c>
+      <c r="M77" s="4">
+        <v>3</v>
+      </c>
+      <c r="N77" s="4">
+        <v>1</v>
+      </c>
+      <c r="O77" s="4">
+        <v>25.520000000000003</v>
+      </c>
+      <c r="P77" s="5">
+        <v>0.38666666666666671</v>
+      </c>
+      <c r="Q77" s="5">
+        <v>0.51476190476190475</v>
+      </c>
+      <c r="R77" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S77" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>240</v>
       </c>
@@ -3734,8 +6146,38 @@
       <c r="I78" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J78" s="4">
+        <v>7</v>
+      </c>
+      <c r="K78" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="L78" s="4">
+        <v>4</v>
+      </c>
+      <c r="M78" s="4">
+        <v>3</v>
+      </c>
+      <c r="N78" s="4">
+        <v>0</v>
+      </c>
+      <c r="O78" s="4">
+        <v>27.5</v>
+      </c>
+      <c r="P78" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="Q78" s="5">
+        <v>0.45833333333333337</v>
+      </c>
+      <c r="R78" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S78" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>243</v>
       </c>
@@ -3763,8 +6205,38 @@
       <c r="I79" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J79" s="4">
+        <v>8</v>
+      </c>
+      <c r="K79" s="5">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L79" s="4">
+        <v>4</v>
+      </c>
+      <c r="M79" s="4">
+        <v>3</v>
+      </c>
+      <c r="N79" s="4">
+        <v>1</v>
+      </c>
+      <c r="O79" s="4">
+        <v>26.409999999999997</v>
+      </c>
+      <c r="P79" s="5">
+        <v>0.40015151515151509</v>
+      </c>
+      <c r="Q79" s="5">
+        <v>0.48579004329004327</v>
+      </c>
+      <c r="R79" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S79" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>246</v>
       </c>
@@ -3792,8 +6264,38 @@
       <c r="I80" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J80" s="4">
+        <v>6</v>
+      </c>
+      <c r="K80" s="5">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="L80" s="4">
+        <v>3</v>
+      </c>
+      <c r="M80" s="4">
+        <v>2</v>
+      </c>
+      <c r="N80" s="4">
+        <v>1</v>
+      </c>
+      <c r="O80" s="4">
+        <v>28.33</v>
+      </c>
+      <c r="P80" s="5">
+        <v>0.4292424242424242</v>
+      </c>
+      <c r="Q80" s="5">
+        <v>0.4289069264069264</v>
+      </c>
+      <c r="R80" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="S80" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>249</v>
       </c>
@@ -3821,8 +6323,38 @@
       <c r="I81" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J81" s="4">
+        <v>13</v>
+      </c>
+      <c r="K81" s="5">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="L81" s="4">
+        <v>5</v>
+      </c>
+      <c r="M81" s="4">
+        <v>5</v>
+      </c>
+      <c r="N81" s="4">
+        <v>3</v>
+      </c>
+      <c r="O81" s="4">
+        <v>21.25</v>
+      </c>
+      <c r="P81" s="5">
+        <v>0.32196969696969696</v>
+      </c>
+      <c r="Q81" s="5">
+        <v>0.62527056277056281</v>
+      </c>
+      <c r="R81" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S81" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>252</v>
       </c>
@@ -3850,8 +6382,38 @@
       <c r="I82" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J82" s="4">
+        <v>8</v>
+      </c>
+      <c r="K82" s="5">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L82" s="4">
+        <v>3</v>
+      </c>
+      <c r="M82" s="4">
+        <v>2</v>
+      </c>
+      <c r="N82" s="4">
+        <v>3</v>
+      </c>
+      <c r="O82" s="4">
+        <v>26.189999999999998</v>
+      </c>
+      <c r="P82" s="5">
+        <v>0.39681818181818179</v>
+      </c>
+      <c r="Q82" s="5">
+        <v>0.48412337662337657</v>
+      </c>
+      <c r="R82" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="S82" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>255</v>
       </c>
@@ -3879,8 +6441,38 @@
       <c r="I83" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J83" s="4">
+        <v>9</v>
+      </c>
+      <c r="K83" s="5">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="L83" s="4">
+        <v>5</v>
+      </c>
+      <c r="M83" s="4">
+        <v>2</v>
+      </c>
+      <c r="N83" s="4">
+        <v>2</v>
+      </c>
+      <c r="O83" s="4">
+        <v>25.090000000000003</v>
+      </c>
+      <c r="P83" s="5">
+        <v>0.38015151515151518</v>
+      </c>
+      <c r="Q83" s="5">
+        <v>0.51150432900432907</v>
+      </c>
+      <c r="R83" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S83" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>258</v>
       </c>
@@ -3908,8 +6500,38 @@
       <c r="I84" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J84" s="4">
+        <v>11</v>
+      </c>
+      <c r="K84" s="5">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="L84" s="4">
+        <v>5</v>
+      </c>
+      <c r="M84" s="4">
+        <v>4</v>
+      </c>
+      <c r="N84" s="4">
+        <v>2</v>
+      </c>
+      <c r="O84" s="4">
+        <v>22.509999999999998</v>
+      </c>
+      <c r="P84" s="5">
+        <v>0.34106060606060601</v>
+      </c>
+      <c r="Q84" s="5">
+        <v>0.56338744588744583</v>
+      </c>
+      <c r="R84" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S84" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>260</v>
       </c>
@@ -3937,8 +6559,38 @@
       <c r="I85" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J85" s="4">
+        <v>11</v>
+      </c>
+      <c r="K85" s="5">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="L85" s="4">
+        <v>4</v>
+      </c>
+      <c r="M85" s="4">
+        <v>4</v>
+      </c>
+      <c r="N85" s="4">
+        <v>3</v>
+      </c>
+      <c r="O85" s="4">
+        <v>22.439999999999998</v>
+      </c>
+      <c r="P85" s="5">
+        <v>0.33999999999999997</v>
+      </c>
+      <c r="Q85" s="5">
+        <v>0.56285714285714283</v>
+      </c>
+      <c r="R85" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S85" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>263</v>
       </c>
@@ -3966,8 +6618,38 @@
       <c r="I86" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J86" s="4">
+        <v>6</v>
+      </c>
+      <c r="K86" s="5">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="L86" s="4">
+        <v>4</v>
+      </c>
+      <c r="M86" s="4">
+        <v>2</v>
+      </c>
+      <c r="N86" s="4">
+        <v>0</v>
+      </c>
+      <c r="O86" s="4">
+        <v>27.259999999999998</v>
+      </c>
+      <c r="P86" s="5">
+        <v>0.41303030303030303</v>
+      </c>
+      <c r="Q86" s="5">
+        <v>0.42080086580086579</v>
+      </c>
+      <c r="R86" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S86" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>266</v>
       </c>
@@ -3995,8 +6677,38 @@
       <c r="I87" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J87" s="4">
+        <v>6</v>
+      </c>
+      <c r="K87" s="5">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="L87" s="4">
+        <v>4</v>
+      </c>
+      <c r="M87" s="4">
+        <v>2</v>
+      </c>
+      <c r="N87" s="4">
+        <v>0</v>
+      </c>
+      <c r="O87" s="4">
+        <v>27.259999999999998</v>
+      </c>
+      <c r="P87" s="5">
+        <v>0.41303030303030303</v>
+      </c>
+      <c r="Q87" s="5">
+        <v>0.42080086580086579</v>
+      </c>
+      <c r="R87" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S87" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>269</v>
       </c>
@@ -4024,8 +6736,38 @@
       <c r="I88" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J88" s="4">
+        <v>5</v>
+      </c>
+      <c r="K88" s="5">
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="L88" s="4">
+        <v>4</v>
+      </c>
+      <c r="M88" s="4">
+        <v>1</v>
+      </c>
+      <c r="N88" s="4">
+        <v>0</v>
+      </c>
+      <c r="O88" s="4">
+        <v>28.18</v>
+      </c>
+      <c r="P88" s="5">
+        <v>0.42696969696969694</v>
+      </c>
+      <c r="Q88" s="5">
+        <v>0.39205627705627705</v>
+      </c>
+      <c r="R88" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="S88" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>272</v>
       </c>
@@ -4053,8 +6795,38 @@
       <c r="I89" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J89" s="4">
+        <v>9</v>
+      </c>
+      <c r="K89" s="5">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="L89" s="4">
+        <v>5</v>
+      </c>
+      <c r="M89" s="4">
+        <v>3</v>
+      </c>
+      <c r="N89" s="4">
+        <v>1</v>
+      </c>
+      <c r="O89" s="4">
+        <v>23.83</v>
+      </c>
+      <c r="P89" s="5">
+        <v>0.36106060606060603</v>
+      </c>
+      <c r="Q89" s="5">
+        <v>0.50195887445887444</v>
+      </c>
+      <c r="R89" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S89" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>275</v>
       </c>
@@ -4082,8 +6854,38 @@
       <c r="I90" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J90" s="4">
+        <v>8</v>
+      </c>
+      <c r="K90" s="5">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L90" s="4">
+        <v>4</v>
+      </c>
+      <c r="M90" s="4">
+        <v>3</v>
+      </c>
+      <c r="N90" s="4">
+        <v>1</v>
+      </c>
+      <c r="O90" s="4">
+        <v>24.17</v>
+      </c>
+      <c r="P90" s="5">
+        <v>0.36621212121212121</v>
+      </c>
+      <c r="Q90" s="5">
+        <v>0.4688203463203463</v>
+      </c>
+      <c r="R90" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S90" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>278</v>
       </c>
@@ -4111,8 +6913,38 @@
       <c r="I91" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J91" s="4">
+        <v>6</v>
+      </c>
+      <c r="K91" s="5">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="L91" s="4">
+        <v>4</v>
+      </c>
+      <c r="M91" s="4">
+        <v>1</v>
+      </c>
+      <c r="N91" s="4">
+        <v>1</v>
+      </c>
+      <c r="O91" s="4">
+        <v>25.83</v>
+      </c>
+      <c r="P91" s="5">
+        <v>0.39136363636363636</v>
+      </c>
+      <c r="Q91" s="5">
+        <v>0.40996753246753248</v>
+      </c>
+      <c r="R91" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="S91" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>281</v>
       </c>
@@ -4140,8 +6972,38 @@
       <c r="I92" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J92" s="4">
+        <v>4</v>
+      </c>
+      <c r="K92" s="5">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L92" s="4">
+        <v>3</v>
+      </c>
+      <c r="M92" s="4">
+        <v>1</v>
+      </c>
+      <c r="N92" s="4">
+        <v>0</v>
+      </c>
+      <c r="O92" s="4">
+        <v>27.75</v>
+      </c>
+      <c r="P92" s="5">
+        <v>0.42045454545454547</v>
+      </c>
+      <c r="Q92" s="5">
+        <v>0.35308441558441561</v>
+      </c>
+      <c r="R92" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="S92" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>284</v>
       </c>
@@ -4169,8 +7031,38 @@
       <c r="I93" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J93" s="4">
+        <v>10</v>
+      </c>
+      <c r="K93" s="5">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L93" s="4">
+        <v>3</v>
+      </c>
+      <c r="M93" s="4">
+        <v>4</v>
+      </c>
+      <c r="N93" s="4">
+        <v>3</v>
+      </c>
+      <c r="O93" s="4">
+        <v>21.69</v>
+      </c>
+      <c r="P93" s="5">
+        <v>0.32863636363636367</v>
+      </c>
+      <c r="Q93" s="5">
+        <v>0.52146103896103901</v>
+      </c>
+      <c r="R93" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S93" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>287</v>
       </c>
@@ -4198,8 +7090,38 @@
       <c r="I94" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J94" s="4">
+        <v>9</v>
+      </c>
+      <c r="K94" s="5">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="L94" s="4">
+        <v>2</v>
+      </c>
+      <c r="M94" s="4">
+        <v>4</v>
+      </c>
+      <c r="N94" s="4">
+        <v>3</v>
+      </c>
+      <c r="O94" s="4">
+        <v>22.5</v>
+      </c>
+      <c r="P94" s="5">
+        <v>0.34090909090909088</v>
+      </c>
+      <c r="Q94" s="5">
+        <v>0.49188311688311692</v>
+      </c>
+      <c r="R94" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="S94" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>290</v>
       </c>
@@ -4227,8 +7149,38 @@
       <c r="I95" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J95" s="4">
+        <v>6</v>
+      </c>
+      <c r="K95" s="5">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="L95" s="4">
+        <v>3</v>
+      </c>
+      <c r="M95" s="4">
+        <v>2</v>
+      </c>
+      <c r="N95" s="4">
+        <v>1</v>
+      </c>
+      <c r="O95" s="4">
+        <v>25.42</v>
+      </c>
+      <c r="P95" s="5">
+        <v>0.38515151515151519</v>
+      </c>
+      <c r="Q95" s="5">
+        <v>0.40686147186147187</v>
+      </c>
+      <c r="R95" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="S95" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>292</v>
       </c>
@@ -4256,8 +7208,38 @@
       <c r="I96" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J96" s="4">
+        <v>9</v>
+      </c>
+      <c r="K96" s="5">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="L96" s="4">
+        <v>4</v>
+      </c>
+      <c r="M96" s="4">
+        <v>4</v>
+      </c>
+      <c r="N96" s="4">
+        <v>1</v>
+      </c>
+      <c r="O96" s="4">
+        <v>22.01</v>
+      </c>
+      <c r="P96" s="5">
+        <v>0.3334848484848485</v>
+      </c>
+      <c r="Q96" s="5">
+        <v>0.4881709956709957</v>
+      </c>
+      <c r="R96" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S96" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>295</v>
       </c>
@@ -4285,8 +7267,38 @@
       <c r="I97" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J97" s="4">
+        <v>10</v>
+      </c>
+      <c r="K97" s="5">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L97" s="4">
+        <v>4</v>
+      </c>
+      <c r="M97" s="4">
+        <v>4</v>
+      </c>
+      <c r="N97" s="4">
+        <v>2</v>
+      </c>
+      <c r="O97" s="4">
+        <v>20.66</v>
+      </c>
+      <c r="P97" s="5">
+        <v>0.31303030303030305</v>
+      </c>
+      <c r="Q97" s="5">
+        <v>0.5136580086580087</v>
+      </c>
+      <c r="R97" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S97" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>297</v>
       </c>
@@ -4314,8 +7326,38 @@
       <c r="I98" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J98" s="4">
+        <v>10</v>
+      </c>
+      <c r="K98" s="5">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L98" s="4">
+        <v>4</v>
+      </c>
+      <c r="M98" s="4">
+        <v>4</v>
+      </c>
+      <c r="N98" s="4">
+        <v>2</v>
+      </c>
+      <c r="O98" s="4">
+        <v>20.66</v>
+      </c>
+      <c r="P98" s="5">
+        <v>0.31303030303030305</v>
+      </c>
+      <c r="Q98" s="5">
+        <v>0.5136580086580087</v>
+      </c>
+      <c r="R98" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S98" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>299</v>
       </c>
@@ -4343,8 +7385,38 @@
       <c r="I99" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J99" s="4">
+        <v>5</v>
+      </c>
+      <c r="K99" s="5">
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="L99" s="4">
+        <v>3</v>
+      </c>
+      <c r="M99" s="4">
+        <v>2</v>
+      </c>
+      <c r="N99" s="4">
+        <v>0</v>
+      </c>
+      <c r="O99" s="4">
+        <v>25.66</v>
+      </c>
+      <c r="P99" s="5">
+        <v>0.38878787878787879</v>
+      </c>
+      <c r="Q99" s="5">
+        <v>0.37296536796536794</v>
+      </c>
+      <c r="R99" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="S99" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>302</v>
       </c>
@@ -4372,8 +7444,38 @@
       <c r="I100" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J100" s="4">
+        <v>5</v>
+      </c>
+      <c r="K100" s="5">
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="L100" s="4">
+        <v>1</v>
+      </c>
+      <c r="M100" s="4">
+        <v>2</v>
+      </c>
+      <c r="N100" s="4">
+        <v>2</v>
+      </c>
+      <c r="O100" s="4">
+        <v>24.91</v>
+      </c>
+      <c r="P100" s="5">
+        <v>0.37742424242424244</v>
+      </c>
+      <c r="Q100" s="5">
+        <v>0.36728354978354982</v>
+      </c>
+      <c r="R100" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="S100" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>305</v>
       </c>
@@ -4401,8 +7503,38 @@
       <c r="I101" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J101" s="4">
+        <v>11</v>
+      </c>
+      <c r="K101" s="5">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="L101" s="4">
+        <v>5</v>
+      </c>
+      <c r="M101" s="4">
+        <v>4</v>
+      </c>
+      <c r="N101" s="4">
+        <v>2</v>
+      </c>
+      <c r="O101" s="4">
+        <v>18.850000000000001</v>
+      </c>
+      <c r="P101" s="5">
+        <v>0.28560606060606064</v>
+      </c>
+      <c r="Q101" s="5">
+        <v>0.53566017316017311</v>
+      </c>
+      <c r="R101" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S101" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>307</v>
       </c>
@@ -4430,8 +7562,38 @@
       <c r="I102" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J102" s="4">
+        <v>9</v>
+      </c>
+      <c r="K102" s="5">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="L102" s="4">
+        <v>4</v>
+      </c>
+      <c r="M102" s="4">
+        <v>2</v>
+      </c>
+      <c r="N102" s="4">
+        <v>3</v>
+      </c>
+      <c r="O102" s="4">
+        <v>20.66</v>
+      </c>
+      <c r="P102" s="5">
+        <v>0.31303030303030305</v>
+      </c>
+      <c r="Q102" s="5">
+        <v>0.477943722943723</v>
+      </c>
+      <c r="R102" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S102" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>309</v>
       </c>
@@ -4459,8 +7621,38 @@
       <c r="I103" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J103" s="4">
+        <v>7</v>
+      </c>
+      <c r="K103" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="L103" s="4">
+        <v>3</v>
+      </c>
+      <c r="M103" s="4">
+        <v>3</v>
+      </c>
+      <c r="N103" s="4">
+        <v>1</v>
+      </c>
+      <c r="O103" s="4">
+        <v>22.26</v>
+      </c>
+      <c r="P103" s="5">
+        <v>0.33727272727272728</v>
+      </c>
+      <c r="Q103" s="5">
+        <v>0.41863636363636364</v>
+      </c>
+      <c r="R103" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S103" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>312</v>
       </c>
@@ -4488,8 +7680,38 @@
       <c r="I104" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J104" s="4">
+        <v>7</v>
+      </c>
+      <c r="K104" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="L104" s="4">
+        <v>4</v>
+      </c>
+      <c r="M104" s="4">
+        <v>2</v>
+      </c>
+      <c r="N104" s="4">
+        <v>1</v>
+      </c>
+      <c r="O104" s="4">
+        <v>22.16</v>
+      </c>
+      <c r="P104" s="5">
+        <v>0.33575757575757575</v>
+      </c>
+      <c r="Q104" s="5">
+        <v>0.41787878787878785</v>
+      </c>
+      <c r="R104" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S104" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>315</v>
       </c>
@@ -4517,8 +7739,38 @@
       <c r="I105" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J105" s="4">
+        <v>8</v>
+      </c>
+      <c r="K105" s="5">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L105" s="4">
+        <v>3</v>
+      </c>
+      <c r="M105" s="4">
+        <v>4</v>
+      </c>
+      <c r="N105" s="4">
+        <v>1</v>
+      </c>
+      <c r="O105" s="4">
+        <v>21</v>
+      </c>
+      <c r="P105" s="5">
+        <v>0.31818181818181818</v>
+      </c>
+      <c r="Q105" s="5">
+        <v>0.44480519480519476</v>
+      </c>
+      <c r="R105" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S105" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>318</v>
       </c>
@@ -4546,8 +7798,38 @@
       <c r="I106" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J106" s="4">
+        <v>7</v>
+      </c>
+      <c r="K106" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="L106" s="4">
+        <v>4</v>
+      </c>
+      <c r="M106" s="4">
+        <v>1</v>
+      </c>
+      <c r="N106" s="4">
+        <v>2</v>
+      </c>
+      <c r="O106" s="4">
+        <v>21.25</v>
+      </c>
+      <c r="P106" s="5">
+        <v>0.32196969696969696</v>
+      </c>
+      <c r="Q106" s="5">
+        <v>0.41098484848484851</v>
+      </c>
+      <c r="R106" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="S106" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>320</v>
       </c>
@@ -4575,8 +7857,38 @@
       <c r="I107" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J107" s="4">
+        <v>7</v>
+      </c>
+      <c r="K107" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="L107" s="4">
+        <v>2</v>
+      </c>
+      <c r="M107" s="4">
+        <v>3</v>
+      </c>
+      <c r="N107" s="4">
+        <v>2</v>
+      </c>
+      <c r="O107" s="4">
+        <v>21.16</v>
+      </c>
+      <c r="P107" s="5">
+        <v>0.32060606060606062</v>
+      </c>
+      <c r="Q107" s="5">
+        <v>0.41030303030303028</v>
+      </c>
+      <c r="R107" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="S107" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>323</v>
       </c>
@@ -4604,8 +7916,38 @@
       <c r="I108" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J108" s="4">
+        <v>7</v>
+      </c>
+      <c r="K108" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="L108" s="4">
+        <v>3</v>
+      </c>
+      <c r="M108" s="4">
+        <v>2</v>
+      </c>
+      <c r="N108" s="4">
+        <v>2</v>
+      </c>
+      <c r="O108" s="4">
+        <v>20.84</v>
+      </c>
+      <c r="P108" s="5">
+        <v>0.31575757575757574</v>
+      </c>
+      <c r="Q108" s="5">
+        <v>0.40787878787878784</v>
+      </c>
+      <c r="R108" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="S108" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>325</v>
       </c>
@@ -4633,8 +7975,38 @@
       <c r="I109" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J109" s="4">
+        <v>8</v>
+      </c>
+      <c r="K109" s="5">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L109" s="4">
+        <v>5</v>
+      </c>
+      <c r="M109" s="4">
+        <v>2</v>
+      </c>
+      <c r="N109" s="4">
+        <v>1</v>
+      </c>
+      <c r="O109" s="4">
+        <v>18.829999999999998</v>
+      </c>
+      <c r="P109" s="5">
+        <v>0.28530303030303028</v>
+      </c>
+      <c r="Q109" s="5">
+        <v>0.42836580086580084</v>
+      </c>
+      <c r="R109" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S109" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>328</v>
       </c>
@@ -4662,8 +8034,38 @@
       <c r="I110" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J110" s="4">
+        <v>7</v>
+      </c>
+      <c r="K110" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="L110" s="4">
+        <v>4</v>
+      </c>
+      <c r="M110" s="4">
+        <v>1</v>
+      </c>
+      <c r="N110" s="4">
+        <v>2</v>
+      </c>
+      <c r="O110" s="4">
+        <v>19.010000000000002</v>
+      </c>
+      <c r="P110" s="5">
+        <v>0.28803030303030308</v>
+      </c>
+      <c r="Q110" s="5">
+        <v>0.39401515151515154</v>
+      </c>
+      <c r="R110" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="S110" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>331</v>
       </c>
@@ -4691,8 +8093,38 @@
       <c r="I111" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J111" s="4">
+        <v>4</v>
+      </c>
+      <c r="K111" s="5">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L111" s="4">
+        <v>1</v>
+      </c>
+      <c r="M111" s="4">
+        <v>3</v>
+      </c>
+      <c r="N111" s="4">
+        <v>0</v>
+      </c>
+      <c r="O111" s="4">
+        <v>21.44</v>
+      </c>
+      <c r="P111" s="5">
+        <v>0.32484848484848489</v>
+      </c>
+      <c r="Q111" s="5">
+        <v>0.30528138528138526</v>
+      </c>
+      <c r="R111" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="S111" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>334</v>
       </c>
@@ -4720,8 +8152,38 @@
       <c r="I112" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J112" s="4">
+        <v>5</v>
+      </c>
+      <c r="K112" s="5">
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="L112" s="4">
+        <v>4</v>
+      </c>
+      <c r="M112" s="4">
+        <v>1</v>
+      </c>
+      <c r="N112" s="4">
+        <v>0</v>
+      </c>
+      <c r="O112" s="4">
+        <v>19.91</v>
+      </c>
+      <c r="P112" s="5">
+        <v>0.30166666666666669</v>
+      </c>
+      <c r="Q112" s="5">
+        <v>0.32940476190476192</v>
+      </c>
+      <c r="R112" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="S112" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>337</v>
       </c>
@@ -4749,8 +8211,38 @@
       <c r="I113" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J113" s="4">
+        <v>4</v>
+      </c>
+      <c r="K113" s="5">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L113" s="4">
+        <v>1</v>
+      </c>
+      <c r="M113" s="4">
+        <v>1</v>
+      </c>
+      <c r="N113" s="4">
+        <v>2</v>
+      </c>
+      <c r="O113" s="4">
+        <v>19.68</v>
+      </c>
+      <c r="P113" s="5">
+        <v>0.29818181818181816</v>
+      </c>
+      <c r="Q113" s="5">
+        <v>0.29194805194805196</v>
+      </c>
+      <c r="R113" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="S113" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>339</v>
       </c>
@@ -4778,8 +8270,38 @@
       <c r="I114" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J114" s="4">
+        <v>6</v>
+      </c>
+      <c r="K114" s="5">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="L114" s="4">
+        <v>2</v>
+      </c>
+      <c r="M114" s="4">
+        <v>2</v>
+      </c>
+      <c r="N114" s="4">
+        <v>2</v>
+      </c>
+      <c r="O114" s="4">
+        <v>16.91</v>
+      </c>
+      <c r="P114" s="5">
+        <v>0.25621212121212122</v>
+      </c>
+      <c r="Q114" s="5">
+        <v>0.34239177489177486</v>
+      </c>
+      <c r="R114" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="S114" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>342</v>
       </c>
@@ -4807,8 +8329,38 @@
       <c r="I115" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J115" s="4">
+        <v>4</v>
+      </c>
+      <c r="K115" s="5">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L115" s="4">
+        <v>3</v>
+      </c>
+      <c r="M115" s="4">
+        <v>1</v>
+      </c>
+      <c r="N115" s="4">
+        <v>0</v>
+      </c>
+      <c r="O115" s="4">
+        <v>18.25</v>
+      </c>
+      <c r="P115" s="5">
+        <v>0.27651515151515149</v>
+      </c>
+      <c r="Q115" s="5">
+        <v>0.2811147186147186</v>
+      </c>
+      <c r="R115" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="S115" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>345</v>
       </c>
@@ -4836,8 +8388,38 @@
       <c r="I116" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J116" s="4">
+        <v>10</v>
+      </c>
+      <c r="K116" s="5">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L116" s="4">
+        <v>4</v>
+      </c>
+      <c r="M116" s="4">
+        <v>4</v>
+      </c>
+      <c r="N116" s="4">
+        <v>2</v>
+      </c>
+      <c r="O116" s="4">
+        <v>12.100000000000001</v>
+      </c>
+      <c r="P116" s="5">
+        <v>0.18333333333333335</v>
+      </c>
+      <c r="Q116" s="5">
+        <v>0.44880952380952382</v>
+      </c>
+      <c r="R116" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S116" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>348</v>
       </c>
@@ -4865,8 +8447,38 @@
       <c r="I117" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J117" s="4">
+        <v>3</v>
+      </c>
+      <c r="K117" s="5">
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="L117" s="4">
+        <v>2</v>
+      </c>
+      <c r="M117" s="4">
+        <v>1</v>
+      </c>
+      <c r="N117" s="4">
+        <v>0</v>
+      </c>
+      <c r="O117" s="4">
+        <v>18.66</v>
+      </c>
+      <c r="P117" s="5">
+        <v>0.28272727272727272</v>
+      </c>
+      <c r="Q117" s="5">
+        <v>0.24850649350649351</v>
+      </c>
+      <c r="R117" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="S117" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>351</v>
       </c>
@@ -4894,8 +8506,38 @@
       <c r="I118" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J118" s="4">
+        <v>5</v>
+      </c>
+      <c r="K118" s="5">
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="L118" s="4">
+        <v>1</v>
+      </c>
+      <c r="M118" s="4">
+        <v>2</v>
+      </c>
+      <c r="N118" s="4">
+        <v>2</v>
+      </c>
+      <c r="O118" s="4">
+        <v>16.16</v>
+      </c>
+      <c r="P118" s="5">
+        <v>0.24484848484848484</v>
+      </c>
+      <c r="Q118" s="5">
+        <v>0.30099567099567098</v>
+      </c>
+      <c r="R118" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="S118" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>354</v>
       </c>
@@ -4923,8 +8565,38 @@
       <c r="I119" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J119" s="4">
+        <v>4</v>
+      </c>
+      <c r="K119" s="5">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L119" s="4">
+        <v>1</v>
+      </c>
+      <c r="M119" s="4">
+        <v>1</v>
+      </c>
+      <c r="N119" s="4">
+        <v>2</v>
+      </c>
+      <c r="O119" s="4">
+        <v>9.83</v>
+      </c>
+      <c r="P119" s="5">
+        <v>0.14893939393939393</v>
+      </c>
+      <c r="Q119" s="5">
+        <v>0.21732683982683981</v>
+      </c>
+      <c r="R119" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="S119" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>357</v>
       </c>
@@ -4952,8 +8624,38 @@
       <c r="I120" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J120" s="4">
+        <v>4</v>
+      </c>
+      <c r="K120" s="5">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L120" s="4">
+        <v>3</v>
+      </c>
+      <c r="M120" s="4">
+        <v>1</v>
+      </c>
+      <c r="N120" s="4">
+        <v>0</v>
+      </c>
+      <c r="O120" s="4">
+        <v>1</v>
+      </c>
+      <c r="P120" s="5">
+        <v>1.5151515151515152E-2</v>
+      </c>
+      <c r="Q120" s="5">
+        <v>0.15043290043290042</v>
+      </c>
+      <c r="R120" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="S120" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>202</v>
       </c>
@@ -4981,8 +8683,263 @@
       <c r="I121" t="s">
         <v>360</v>
       </c>
+      <c r="J121" s="6">
+        <v>0</v>
+      </c>
+      <c r="K121" s="7">
+        <v>0</v>
+      </c>
+      <c r="L121" s="6">
+        <v>0</v>
+      </c>
+      <c r="M121" s="6">
+        <v>0</v>
+      </c>
+      <c r="N121" s="6">
+        <v>0</v>
+      </c>
+      <c r="O121" s="6">
+        <v>0</v>
+      </c>
+      <c r="P121" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q121" s="7">
+        <v>0</v>
+      </c>
+      <c r="R121" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="S121" s="6" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c r="H122" s="8"/>
+      <c r="I122" s="8"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="10"/>
+      <c r="L122" s="9"/>
+      <c r="M122" s="9"/>
+      <c r="N122" s="9"/>
+      <c r="O122" s="9"/>
+      <c r="P122" s="10"/>
+      <c r="Q122" s="10"/>
+      <c r="R122" s="9"/>
+      <c r="S122" s="9"/>
+    </row>
+    <row r="123" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="8"/>
+      <c r="I123" s="8"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="10"/>
+      <c r="L123" s="9"/>
+      <c r="M123" s="9"/>
+      <c r="N123" s="9"/>
+      <c r="O123" s="9"/>
+      <c r="P123" s="10"/>
+      <c r="Q123" s="10"/>
+      <c r="R123" s="9"/>
+      <c r="S123" s="9"/>
+    </row>
+    <row r="124" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c r="H124" s="8"/>
+      <c r="I124" s="8"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="10"/>
+      <c r="L124" s="9"/>
+      <c r="M124" s="9"/>
+      <c r="N124" s="9"/>
+      <c r="O124" s="9"/>
+      <c r="P124" s="10"/>
+      <c r="Q124" s="10"/>
+      <c r="R124" s="9"/>
+      <c r="S124" s="9"/>
+    </row>
+    <row r="125" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c r="H125" s="8"/>
+      <c r="I125" s="8"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="10"/>
+      <c r="L125" s="9"/>
+      <c r="M125" s="9"/>
+      <c r="N125" s="9"/>
+      <c r="O125" s="9"/>
+      <c r="P125" s="10"/>
+      <c r="Q125" s="10"/>
+      <c r="R125" s="9"/>
+      <c r="S125" s="9"/>
+    </row>
+    <row r="126" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c r="H126" s="8"/>
+      <c r="I126" s="8"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="10"/>
+      <c r="L126" s="9"/>
+      <c r="M126" s="9"/>
+      <c r="N126" s="9"/>
+      <c r="O126" s="9"/>
+      <c r="P126" s="10"/>
+      <c r="Q126" s="10"/>
+      <c r="R126" s="9"/>
+      <c r="S126" s="9"/>
+    </row>
+    <row r="127" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c r="H127" s="8"/>
+      <c r="I127" s="8"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="10"/>
+      <c r="L127" s="9"/>
+      <c r="M127" s="9"/>
+      <c r="N127" s="9"/>
+      <c r="O127" s="9"/>
+      <c r="P127" s="10"/>
+      <c r="Q127" s="10"/>
+      <c r="R127" s="9"/>
+      <c r="S127" s="9"/>
+    </row>
+    <row r="128" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c r="H128" s="8"/>
+      <c r="I128" s="8"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="10"/>
+      <c r="L128" s="9"/>
+      <c r="M128" s="9"/>
+      <c r="N128" s="9"/>
+      <c r="O128" s="9"/>
+      <c r="P128" s="10"/>
+      <c r="Q128" s="10"/>
+      <c r="R128" s="9"/>
+      <c r="S128" s="9"/>
+    </row>
+    <row r="129" spans="6:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c r="H129" s="8"/>
+      <c r="I129" s="8"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="10"/>
+      <c r="L129" s="9"/>
+      <c r="M129" s="9"/>
+      <c r="N129" s="9"/>
+      <c r="O129" s="9"/>
+      <c r="P129" s="10"/>
+      <c r="Q129" s="10"/>
+      <c r="R129" s="9"/>
+      <c r="S129" s="9"/>
+    </row>
+    <row r="130" spans="6:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c r="H130" s="8"/>
+      <c r="I130" s="8"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="10"/>
+      <c r="L130" s="9"/>
+      <c r="M130" s="9"/>
+      <c r="N130" s="9"/>
+      <c r="O130" s="9"/>
+      <c r="P130" s="10"/>
+      <c r="Q130" s="10"/>
+      <c r="R130" s="9"/>
+      <c r="S130" s="9"/>
+    </row>
+    <row r="131" spans="6:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c r="H131" s="8"/>
+      <c r="I131" s="8"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="10"/>
+      <c r="L131" s="9"/>
+      <c r="M131" s="9"/>
+      <c r="N131" s="9"/>
+      <c r="O131" s="9"/>
+      <c r="P131" s="10"/>
+      <c r="Q131" s="10"/>
+      <c r="R131" s="9"/>
+      <c r="S131" s="9"/>
+    </row>
+    <row r="132" spans="6:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c r="H132" s="8"/>
+      <c r="I132" s="8"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="10"/>
+      <c r="L132" s="9"/>
+      <c r="M132" s="9"/>
+      <c r="N132" s="9"/>
+      <c r="O132" s="9"/>
+      <c r="P132" s="10"/>
+      <c r="Q132" s="10"/>
+      <c r="R132" s="9"/>
+      <c r="S132" s="9"/>
+    </row>
+    <row r="133" spans="6:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c r="H133" s="8"/>
+      <c r="I133" s="8"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="10"/>
+      <c r="L133" s="9"/>
+      <c r="M133" s="9"/>
+      <c r="N133" s="9"/>
+      <c r="O133" s="9"/>
+      <c r="P133" s="10"/>
+      <c r="Q133" s="10"/>
+      <c r="R133" s="9"/>
+      <c r="S133" s="9"/>
+    </row>
+    <row r="134" spans="6:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c r="H134" s="8"/>
+      <c r="I134" s="8"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="10"/>
+      <c r="L134" s="9"/>
+      <c r="M134" s="9"/>
+      <c r="N134" s="9"/>
+      <c r="O134" s="9"/>
+      <c r="P134" s="10"/>
+      <c r="Q134" s="10"/>
+      <c r="R134" s="9"/>
+      <c r="S134" s="9"/>
+    </row>
+    <row r="135" spans="6:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c r="H135" s="8"/>
+      <c r="I135" s="8"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="10"/>
+      <c r="L135" s="9"/>
+      <c r="M135" s="9"/>
+      <c r="N135" s="9"/>
+      <c r="O135" s="9"/>
+      <c r="P135" s="10"/>
+      <c r="Q135" s="10"/>
+      <c r="R135" s="9"/>
+      <c r="S135" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>